--- a/TestData/LoginData.xlsx
+++ b/TestData/LoginData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -45,13 +45,16 @@
     <t>vira@dasinfomedia.com</t>
   </si>
   <si>
-    <t>viraj@dasinfomedia.com</t>
-  </si>
-  <si>
     <t>vi@dasinfomedia.com</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>arjun@dasinfomedia.com</t>
+  </si>
+  <si>
+    <t>Arjun123</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,7 +498,7 @@
     </row>
     <row r="3" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -517,13 +520,13 @@
     </row>
     <row r="5" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>12345678</v>
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
